--- a/ZDD Bb4A Fundamentalstestcases.xlsx
+++ b/ZDD Bb4A Fundamentalstestcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPA\01 CPR101\CPR V2 FINAL PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPA\01 CPR101\cpr v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C5CDDDB-1901-45D5-BE92-06CB8CDC9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{576D6FB4-E1AD-4C23-9F98-2FB47B0BA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>Comments</t>
   </si>
@@ -1168,10 +1168,6 @@
     <t>Sample Test Cases</t>
   </si>
   <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
-  </si>
-  <si>
     <t>Fundamental</t>
   </si>
   <si>
@@ -1335,6 +1331,50 @@
 Type a string (q - to quit):
 "FFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFF"
 The length of '' is 70 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drashti Desai 
+11 august </t>
+  </si>
+  <si>
+    <t>*** Start of Measuring Strings Demo ***
+Type a string (q - to quit):
+q
+*** End of Measuring Strings Demo ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Type a string (q - to quit):
+This week I have a exams
+The length of 'This week I have exams' is 25 characters</t>
+  </si>
+  <si>
+    <t>"This week I have a exams"</t>
+  </si>
+  <si>
+    <t>Type a string (q - to quit):
+Hell is jail
+The length of 'Hello' is 12 characters</t>
+  </si>
+  <si>
+    <t>"Hell is jail"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Type a string (q - to quit):
+hey
+The length of 'hey' is 3 characters
+Type a string (q - to quit):
+q</t>
+  </si>
+  <si>
+    <t>"hey","q"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*** Start of Measuring Strings Demo ***
+Type a string (q - to quit):
+The length of '' is 0 characters</t>
   </si>
 </sst>
 </file>
@@ -1853,6 +1893,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,9 +1907,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,22 +2266,22 @@
       <c r="B1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="45" t="str">
+      <c r="C1" s="46" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="31"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2431,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2451,30 +2491,30 @@
         <v>9</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="45" t="str">
+        <v>36</v>
+      </c>
+      <c r="C1" s="46" t="str">
         <f>"Save As_Fundamental_test_cases.xlsx"</f>
         <v>Save As_Fundamental_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2502,109 +2542,109 @@
     </row>
     <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2617,18 +2657,18 @@
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2656,16 +2696,16 @@
     </row>
     <row r="12" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="25" t="s">
@@ -2673,17 +2713,17 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>72</v>
+      <c r="A13" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="25" t="s">
@@ -2692,16 +2732,16 @@
     </row>
     <row r="14" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="25" t="s">
@@ -2710,34 +2750,34 @@
     </row>
     <row r="15" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>74</v>
+    <row r="16" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="25" t="s">
@@ -2750,19 +2790,19 @@
       <c r="E17" s="3"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:7" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2788,35 +2828,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="F20" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="F21" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+      <c r="F22" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
+      <c r="F23" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
